--- a/database/2024-mens-euro.xlsx
+++ b/database/2024-mens-euro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823DEA46-652A-0F46-9112-50440A861094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA7752-4F3C-2347-9210-7304D509F8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="25780" windowHeight="13980" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
@@ -354,9 +354,6 @@
     <t>UEFA Euro 2024 in Duitsland</t>
   </si>
   <si>
-    <t>ドイツで開催されるUEFAユーロ2024</t>
-  </si>
-  <si>
     <t>یوفا یورو 2024 آلمان</t>
   </si>
   <si>
@@ -378,9 +375,6 @@
     <t>Schema- en scorekaart EK 2024</t>
   </si>
   <si>
-    <t>2024年ユーロスケジュール＆スコアカード</t>
-  </si>
-  <si>
     <t>جدول و کارت امتیاز یورو 2024</t>
   </si>
   <si>
@@ -1297,6 +1291,12 @@
   </si>
   <si>
     <t>Europe/Berlin</t>
+  </si>
+  <si>
+    <t>2024ユーロ 日程・スコア</t>
+  </si>
+  <si>
+    <t>2024ドイツユーロ</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2385,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2453,10 +2453,10 @@
         <v>102</v>
       </c>
       <c r="H2" t="s">
+        <v>417</v>
+      </c>
+      <c r="I2" t="s">
         <v>103</v>
-      </c>
-      <c r="I2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2464,28 +2464,28 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>107</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>108</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>109</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I3" t="s">
         <v>110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2493,7 +2493,7 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
@@ -2508,21 +2508,21 @@
         <v>96</v>
       </c>
       <c r="G4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
         <v>114</v>
-      </c>
-      <c r="H4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,28 +2530,28 @@
         <v>58</v>
       </c>
       <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
         <v>118</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>119</v>
       </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>120</v>
-      </c>
-      <c r="H6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2559,28 +2559,28 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
         <v>123</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>124</v>
       </c>
-      <c r="D7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>125</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>126</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>127</v>
-      </c>
-      <c r="H7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2588,28 +2588,28 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2617,28 +2617,28 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" t="s">
         <v>133</v>
       </c>
-      <c r="C9" t="s">
+      <c r="I9" t="s">
         <v>134</v>
-      </c>
-      <c r="D9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2646,28 +2646,28 @@
         <v>62</v>
       </c>
       <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
         <v>137</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" t="s">
         <v>138</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>139</v>
-      </c>
-      <c r="E10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2675,28 +2675,28 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" t="s">
         <v>142</v>
-      </c>
-      <c r="C11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2704,28 +2704,28 @@
         <v>64</v>
       </c>
       <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
         <v>145</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>146</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" t="s">
         <v>147</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>148</v>
-      </c>
-      <c r="F12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2733,28 +2733,28 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
         <v>151</v>
       </c>
-      <c r="C13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="I13" t="s">
         <v>152</v>
-      </c>
-      <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2762,28 +2762,28 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" t="s">
         <v>155</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" t="s">
         <v>155</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H14" t="s">
         <v>156</v>
       </c>
-      <c r="E14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>157</v>
-      </c>
-      <c r="G14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2791,28 +2791,28 @@
         <v>80</v>
       </c>
       <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" t="s">
         <v>160</v>
       </c>
-      <c r="C15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="I15" t="s">
         <v>161</v>
-      </c>
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" t="s">
-        <v>160</v>
-      </c>
-      <c r="G15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3683,7 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D40" s="1">
         <v>45473.791666666664</v>
@@ -3704,7 +3704,7 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D41" s="1">
         <v>45473.666666666664</v>
@@ -3725,7 +3725,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D42" s="1">
         <v>45474.791666666664</v>
@@ -3767,7 +3767,7 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D44" s="1">
         <v>45475.666666666664</v>
@@ -3806,10 +3806,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D46" s="1">
         <v>45478.666666666664</v>
@@ -3827,10 +3827,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D47" s="1">
         <v>45478.791666666664</v>
@@ -3848,10 +3848,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D48" s="1">
         <v>45479.791666666664</v>
@@ -3869,10 +3869,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D49" s="1">
         <v>45479.666666666664</v>
@@ -3890,10 +3890,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D50" s="1">
         <v>45482.791666666664</v>
@@ -3911,10 +3911,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D51" s="1">
         <v>45483.791666666664</v>
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3997,7 +3997,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4021,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4037,7 +4037,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4045,7 +4045,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4061,7 +4061,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4077,7 +4077,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4093,7 +4093,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4109,7 +4109,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4117,7 +4117,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4125,7 +4125,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4133,7 +4133,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4141,7 +4141,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4149,7 +4149,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4165,7 +4165,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4219,7 +4219,7 @@
         <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4227,7 +4227,7 @@
         <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4240,12 +4240,12 @@
         <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4266,7 +4266,7 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4279,7 +4279,7 @@
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4292,12 +4292,12 @@
         <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="J7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4335,37 +4335,37 @@
         <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4379,13 +4379,13 @@
         <v>45457.875</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G2" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F2,'#venues'!$B$2:$B$11,0))</f>
@@ -4423,13 +4423,13 @@
         <v>45458.625</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F3,'#venues'!$B$2:$B$11,0))</f>
@@ -4467,13 +4467,13 @@
         <v>45458.75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G4" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F4,'#venues'!$B$2:$B$11,0))</f>
@@ -4511,13 +4511,13 @@
         <v>45458.875</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G5" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F5,'#venues'!$B$2:$B$11,0))</f>
@@ -4555,13 +4555,13 @@
         <v>45459.875</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F6,'#venues'!$B$2:$B$11,0))</f>
@@ -4599,13 +4599,13 @@
         <v>45459.75</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G7" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F7,'#venues'!$B$2:$B$11,0))</f>
@@ -4643,13 +4643,13 @@
         <v>45459.625</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G8" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F8,'#venues'!$B$2:$B$11,0))</f>
@@ -4687,13 +4687,13 @@
         <v>45460.875</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F9,'#venues'!$B$2:$B$11,0))</f>
@@ -4731,13 +4731,13 @@
         <v>45460.75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G10" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F10,'#venues'!$B$2:$B$11,0))</f>
@@ -4775,13 +4775,13 @@
         <v>45460.625</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G11" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F11,'#venues'!$B$2:$B$11,0))</f>
@@ -4819,13 +4819,13 @@
         <v>45461.75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F12,'#venues'!$B$2:$B$11,0))</f>
@@ -4863,13 +4863,13 @@
         <v>45461.875</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G13" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F13,'#venues'!$B$2:$B$11,0))</f>
@@ -4907,13 +4907,13 @@
         <v>45462.875</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F14,'#venues'!$B$2:$B$11,0))</f>
@@ -4951,13 +4951,13 @@
         <v>45462.75</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G15" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F15,'#venues'!$B$2:$B$11,0))</f>
@@ -4995,13 +4995,13 @@
         <v>45462.625</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G16" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F16,'#venues'!$B$2:$B$11,0))</f>
@@ -5039,13 +5039,13 @@
         <v>45463.875</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G17" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F17,'#venues'!$B$2:$B$11,0))</f>
@@ -5083,13 +5083,13 @@
         <v>45463.75</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G18" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F18,'#venues'!$B$2:$B$11,0))</f>
@@ -5127,13 +5127,13 @@
         <v>45463.625</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G19" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F19,'#venues'!$B$2:$B$11,0))</f>
@@ -5171,13 +5171,13 @@
         <v>45464.75</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G20" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F20,'#venues'!$B$2:$B$11,0))</f>
@@ -5215,13 +5215,13 @@
         <v>45464.875</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G21" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F21,'#venues'!$B$2:$B$11,0))</f>
@@ -5259,13 +5259,13 @@
         <v>45464.625</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G22" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F22,'#venues'!$B$2:$B$11,0))</f>
@@ -5303,13 +5303,13 @@
         <v>45465.875</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G23" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F23,'#venues'!$B$2:$B$11,0))</f>
@@ -5347,13 +5347,13 @@
         <v>45465.75</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G24" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F24,'#venues'!$B$2:$B$11,0))</f>
@@ -5391,13 +5391,13 @@
         <v>45465.625</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G25" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F25,'#venues'!$B$2:$B$11,0))</f>
@@ -5435,13 +5435,13 @@
         <v>45466.875</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G26" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F26,'#venues'!$B$2:$B$11,0))</f>
@@ -5479,13 +5479,13 @@
         <v>45466.875</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G27" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F27,'#venues'!$B$2:$B$11,0))</f>
@@ -5523,13 +5523,13 @@
         <v>45467.875</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G28" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F28,'#venues'!$B$2:$B$11,0))</f>
@@ -5567,13 +5567,13 @@
         <v>45467.875</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G29" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F29,'#venues'!$B$2:$B$11,0))</f>
@@ -5611,13 +5611,13 @@
         <v>45468.875</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G30" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F30,'#venues'!$B$2:$B$11,0))</f>
@@ -5655,13 +5655,13 @@
         <v>45468.875</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G31" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F31,'#venues'!$B$2:$B$11,0))</f>
@@ -5699,13 +5699,13 @@
         <v>45468.75</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G32" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F32,'#venues'!$B$2:$B$11,0))</f>
@@ -5743,13 +5743,13 @@
         <v>45468.75</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G33" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F33,'#venues'!$B$2:$B$11,0))</f>
@@ -5787,13 +5787,13 @@
         <v>45469.75</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G34" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F34,'#venues'!$B$2:$B$11,0))</f>
@@ -5831,13 +5831,13 @@
         <v>45469.75</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G35" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F35,'#venues'!$B$2:$B$11,0))</f>
@@ -5875,13 +5875,13 @@
         <v>45469.875</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G36" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F36,'#venues'!$B$2:$B$11,0))</f>
@@ -5919,13 +5919,13 @@
         <v>45469.875</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G37" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F37,'#venues'!$B$2:$B$11,0))</f>
@@ -5957,19 +5957,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C38" s="4">
         <v>45472.875</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G38" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F38,'#venues'!$B$2:$B$11,0))</f>
@@ -5997,13 +5997,13 @@
         <v>45472.75</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F39,'#venues'!$B$2:$B$11,0))</f>
@@ -6031,13 +6031,13 @@
         <v>45473.875</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G40" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F40,'#venues'!$B$2:$B$11,0))</f>
@@ -6049,7 +6049,7 @@
         <v>28</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L40" s="7">
         <f>'#matches'!$C40-TIME(2,0,0)</f>
@@ -6065,13 +6065,13 @@
         <v>45473.75</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G41" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F41,'#venues'!$B$2:$B$11,0))</f>
@@ -6083,7 +6083,7 @@
         <v>26</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L41" s="8">
         <f>'#matches'!$C41-TIME(2,0,0)</f>
@@ -6099,13 +6099,13 @@
         <v>45474.875</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G42" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F42,'#venues'!$B$2:$B$11,0))</f>
@@ -6117,7 +6117,7 @@
         <v>34</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L42" s="7">
         <f>'#matches'!$C42-TIME(2,0,0)</f>
@@ -6133,13 +6133,13 @@
         <v>45474.75</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G43" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F43,'#venues'!$B$2:$B$11,0))</f>
@@ -6167,13 +6167,13 @@
         <v>45475.75</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G44" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F44,'#venues'!$B$2:$B$11,0))</f>
@@ -6185,7 +6185,7 @@
         <v>32</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L44" s="7">
         <f>'#matches'!$C44-TIME(2,0,0)</f>
@@ -6201,13 +6201,13 @@
         <v>45475.875</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G45" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F45,'#venues'!$B$2:$B$11,0))</f>
@@ -6231,19 +6231,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C46" s="4">
         <v>45478.75</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G46" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F46,'#venues'!$B$2:$B$11,0))</f>
@@ -6252,10 +6252,10 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L46" s="7">
         <f>'#matches'!$C46-TIME(2,0,0)</f>
@@ -6271,13 +6271,13 @@
         <v>45478.875</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G47" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F47,'#venues'!$B$2:$B$11,0))</f>
@@ -6286,10 +6286,10 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L47" s="8">
         <f>'#matches'!$C47-TIME(2,0,0)</f>
@@ -6305,13 +6305,13 @@
         <v>45479.875</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G48" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F48,'#venues'!$B$2:$B$11,0))</f>
@@ -6320,10 +6320,10 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L48" s="7">
         <f>'#matches'!$C48-TIME(2,0,0)</f>
@@ -6339,13 +6339,13 @@
         <v>45479.75</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G49" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F49,'#venues'!$B$2:$B$11,0))</f>
@@ -6354,10 +6354,10 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L49" s="8">
         <f>'#matches'!$C49-TIME(2,0,0)</f>
@@ -6369,19 +6369,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C50" s="4">
         <v>45482.875</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G50" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F50,'#venues'!$B$2:$B$11,0))</f>
@@ -6390,10 +6390,10 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L50" s="7">
         <f>'#matches'!$C50-TIME(2,0,0)</f>
@@ -6409,13 +6409,13 @@
         <v>45483.875</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G51" s="5">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F51,'#venues'!$B$2:$B$11,0))</f>
@@ -6424,10 +6424,10 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L51" s="8">
         <f>'#matches'!$C51-TIME(2,0,0)</f>
@@ -6439,19 +6439,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C52" s="4">
         <v>45487.875</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G52" s="3">
         <f>INDEX('#venues'!$A$2:$A$11,MATCH(F52,'#venues'!$B$2:$B$11,0))</f>
@@ -6504,7 +6504,7 @@
         <v>74</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -6524,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>LOWER('#seeds'!$B3)</f>
@@ -6536,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>LOWER('#seeds'!$B4)</f>
@@ -6572,7 +6572,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>LOWER('#seeds'!$B7)</f>
@@ -6596,7 +6596,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C9" s="5" t="str">
         <f>LOWER('#seeds'!$B9)</f>
@@ -6608,7 +6608,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>LOWER('#seeds'!$B10)</f>
@@ -6632,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>LOWER('#seeds'!$B12)</f>
@@ -6656,7 +6656,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>LOWER('#seeds'!$B14)</f>
@@ -6680,7 +6680,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>LOWER('#seeds'!$B16)</f>
@@ -6704,7 +6704,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>LOWER('#seeds'!$B18)</f>
@@ -6716,7 +6716,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>LOWER('#seeds'!$B19)</f>
@@ -6728,7 +6728,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="str">
         <f>LOWER('#seeds'!$B20)</f>
@@ -6740,7 +6740,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="5" t="str">
         <f>LOWER('#seeds'!$B21)</f>
@@ -6752,7 +6752,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>LOWER('#seeds'!$B22)</f>
@@ -6764,7 +6764,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C23" s="5" t="str">
         <f>LOWER('#seeds'!$B23)</f>
@@ -6788,7 +6788,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>LOWER('#seeds'!$B25)</f>
@@ -6823,682 +6823,682 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7527,7 +7527,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7535,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7543,7 +7543,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7551,7 +7551,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -7559,7 +7559,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -7567,7 +7567,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -7575,7 +7575,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -7583,7 +7583,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -7591,7 +7591,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -7599,7 +7599,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -7607,7 +7607,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
